--- a/Code/Results/Cases/Case_6_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_48/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00672296660576</v>
+        <v>1.027136108155939</v>
       </c>
       <c r="D2">
-        <v>1.025188028062616</v>
+        <v>1.042732534406307</v>
       </c>
       <c r="E2">
-        <v>1.011533229156602</v>
+        <v>1.029381799171059</v>
       </c>
       <c r="F2">
-        <v>1.025737382739194</v>
+        <v>1.044281613710947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044209349003135</v>
+        <v>1.054024125574748</v>
       </c>
       <c r="J2">
-        <v>1.028704437595228</v>
+        <v>1.048534405892446</v>
       </c>
       <c r="K2">
-        <v>1.036307261564724</v>
+        <v>1.053626986715598</v>
       </c>
       <c r="L2">
-        <v>1.022834192528026</v>
+        <v>1.040446429794189</v>
       </c>
       <c r="M2">
-        <v>1.036849431810491</v>
+        <v>1.055156671532741</v>
       </c>
       <c r="N2">
-        <v>1.030165315890679</v>
+        <v>1.050023445017391</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014508220665139</v>
+        <v>1.033345741890003</v>
       </c>
       <c r="D3">
-        <v>1.031360699775252</v>
+        <v>1.047739573999942</v>
       </c>
       <c r="E3">
-        <v>1.018054620225875</v>
+        <v>1.034530454361615</v>
       </c>
       <c r="F3">
-        <v>1.032809816105039</v>
+        <v>1.050059642732116</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04663955629667</v>
+        <v>1.056319238356803</v>
       </c>
       <c r="J3">
-        <v>1.034611041636596</v>
+        <v>1.052966878101079</v>
       </c>
       <c r="K3">
-        <v>1.041607442939852</v>
+        <v>1.057795991776898</v>
       </c>
       <c r="L3">
-        <v>1.028461585266716</v>
+        <v>1.044739782343187</v>
       </c>
       <c r="M3">
-        <v>1.043039418883642</v>
+        <v>1.060089692896194</v>
       </c>
       <c r="N3">
-        <v>1.036080307987266</v>
+        <v>1.054462211844972</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019391758084877</v>
+        <v>1.037262481964598</v>
       </c>
       <c r="D4">
-        <v>1.035235208276765</v>
+        <v>1.050900580799333</v>
       </c>
       <c r="E4">
-        <v>1.022151172435107</v>
+        <v>1.03778319484099</v>
       </c>
       <c r="F4">
-        <v>1.037252731771761</v>
+        <v>1.053710210054805</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04815133567387</v>
+        <v>1.057756875396678</v>
       </c>
       <c r="J4">
-        <v>1.038312099963911</v>
+        <v>1.05575876105523</v>
       </c>
       <c r="K4">
-        <v>1.044926190423378</v>
+        <v>1.060421170901025</v>
       </c>
       <c r="L4">
-        <v>1.031989405687694</v>
+        <v>1.047446032190761</v>
       </c>
       <c r="M4">
-        <v>1.046921414555211</v>
+        <v>1.063200895742933</v>
       </c>
       <c r="N4">
-        <v>1.039786622241922</v>
+        <v>1.05725805959315</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021410049700616</v>
+        <v>1.03888595520641</v>
       </c>
       <c r="D5">
-        <v>1.03683697095955</v>
+        <v>1.052211410255481</v>
       </c>
       <c r="E5">
-        <v>1.023845509401714</v>
+        <v>1.039132629263957</v>
       </c>
       <c r="F5">
-        <v>1.039090382946575</v>
+        <v>1.055224753708692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048773029634924</v>
+        <v>1.058350322724495</v>
       </c>
       <c r="J5">
-        <v>1.039840649375467</v>
+        <v>1.056915000002552</v>
       </c>
       <c r="K5">
-        <v>1.046296261321497</v>
+        <v>1.0615081796434</v>
       </c>
       <c r="L5">
-        <v>1.033446807166881</v>
+        <v>1.048567278491437</v>
       </c>
       <c r="M5">
-        <v>1.048525484432905</v>
+        <v>1.064490346779327</v>
       </c>
       <c r="N5">
-        <v>1.04131734236897</v>
+        <v>1.058415940532401</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021746950658251</v>
+        <v>1.039157218907319</v>
       </c>
       <c r="D6">
-        <v>1.037104368772946</v>
+        <v>1.05243046840663</v>
       </c>
       <c r="E6">
-        <v>1.02412840797001</v>
+        <v>1.039358172170882</v>
       </c>
       <c r="F6">
-        <v>1.039397213874317</v>
+        <v>1.055477897141793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048876620843039</v>
+        <v>1.058449335735454</v>
       </c>
       <c r="J6">
-        <v>1.040095737408286</v>
+        <v>1.057108134938104</v>
       </c>
       <c r="K6">
-        <v>1.046524867110893</v>
+        <v>1.061689739040609</v>
       </c>
       <c r="L6">
-        <v>1.033690045065173</v>
+        <v>1.048754595905182</v>
       </c>
       <c r="M6">
-        <v>1.048793221700493</v>
+        <v>1.064705789994679</v>
       </c>
       <c r="N6">
-        <v>1.041572792656053</v>
+        <v>1.058609349741714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019418860450233</v>
+        <v>1.03728426431848</v>
       </c>
       <c r="D7">
-        <v>1.0352567155551</v>
+        <v>1.050918166067221</v>
       </c>
       <c r="E7">
-        <v>1.022173919620501</v>
+        <v>1.037801295771726</v>
       </c>
       <c r="F7">
-        <v>1.037277402772462</v>
+        <v>1.053730525430566</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04815969637505</v>
+        <v>1.057764847494789</v>
       </c>
       <c r="J7">
-        <v>1.038332630105823</v>
+        <v>1.055774278423338</v>
       </c>
       <c r="K7">
-        <v>1.044944594359293</v>
+        <v>1.060435759929898</v>
       </c>
       <c r="L7">
-        <v>1.032008978663672</v>
+        <v>1.047461078080745</v>
       </c>
       <c r="M7">
-        <v>1.046942955902893</v>
+        <v>1.063218197063122</v>
       </c>
       <c r="N7">
-        <v>1.03980718153899</v>
+        <v>1.057273598997702</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009387268581996</v>
+        <v>1.029256364029437</v>
       </c>
       <c r="D8">
-        <v>1.027299860891614</v>
+        <v>1.044441535526476</v>
       </c>
       <c r="E8">
-        <v>1.013763715236054</v>
+        <v>1.031138649705914</v>
       </c>
       <c r="F8">
-        <v>1.028156298615173</v>
+        <v>1.046253188208648</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04504365140377</v>
+        <v>1.054809860759863</v>
       </c>
       <c r="J8">
-        <v>1.030726626767648</v>
+        <v>1.050048649120128</v>
       </c>
       <c r="K8">
-        <v>1.038122312222597</v>
+        <v>1.055051375354177</v>
       </c>
       <c r="L8">
-        <v>1.02476042076888</v>
+        <v>1.041912721927184</v>
       </c>
       <c r="M8">
-        <v>1.03896791744639</v>
+        <v>1.056841063387528</v>
       </c>
       <c r="N8">
-        <v>1.032190376803655</v>
+        <v>1.051539838644142</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9904238029042082</v>
+        <v>1.014279240984641</v>
       </c>
       <c r="D9">
-        <v>1.012284906279134</v>
+        <v>1.032384529608768</v>
       </c>
       <c r="E9">
-        <v>0.9979178406623118</v>
+        <v>1.018753819933012</v>
       </c>
       <c r="F9">
-        <v>1.0109724071038</v>
+        <v>1.032354870453501</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039053688765846</v>
+        <v>1.049218642960475</v>
       </c>
       <c r="J9">
-        <v>1.016319313151789</v>
+        <v>1.039337646637004</v>
       </c>
       <c r="K9">
-        <v>1.025181764915545</v>
+        <v>1.044973166355513</v>
       </c>
       <c r="L9">
-        <v>1.011044790021367</v>
+        <v>1.031549784543557</v>
       </c>
       <c r="M9">
-        <v>1.023889938145125</v>
+        <v>1.044943950764079</v>
       </c>
       <c r="N9">
-        <v>1.017762603149919</v>
+        <v>1.040813625308923</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9767469930229005</v>
+        <v>1.00365138411947</v>
       </c>
       <c r="D10">
-        <v>1.001483543085722</v>
+        <v>1.023851791183694</v>
       </c>
       <c r="E10">
-        <v>0.9865338331773164</v>
+        <v>1.010001283906043</v>
       </c>
       <c r="F10">
-        <v>0.9986275880327353</v>
+        <v>1.022532146587727</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034670997694614</v>
+        <v>1.045201168379557</v>
       </c>
       <c r="J10">
-        <v>1.00591455822684</v>
+        <v>1.031720876692055</v>
       </c>
       <c r="K10">
-        <v>1.015826063266895</v>
+        <v>1.037803346652998</v>
       </c>
       <c r="L10">
-        <v>1.001150555798244</v>
+        <v>1.024192279883784</v>
       </c>
       <c r="M10">
-        <v>1.013021666092625</v>
+        <v>1.03650615433155</v>
       </c>
       <c r="N10">
-        <v>1.007343072279534</v>
+        <v>1.033186038676996</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9705343730908285</v>
+        <v>0.9988755183887938</v>
       </c>
       <c r="D11">
-        <v>0.9965861735757963</v>
+        <v>1.020024186600959</v>
       </c>
       <c r="E11">
-        <v>0.9813754565796775</v>
+        <v>1.006077900316358</v>
       </c>
       <c r="F11">
-        <v>0.9930338226126746</v>
+        <v>1.018128614516939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032666653938181</v>
+        <v>1.043384778479798</v>
       </c>
       <c r="J11">
-        <v>1.001186493616154</v>
+        <v>1.028295152048877</v>
       </c>
       <c r="K11">
-        <v>1.011572758106742</v>
+        <v>1.034578104443398</v>
       </c>
       <c r="L11">
-        <v>0.9966573641508775</v>
+        <v>1.020886099408163</v>
       </c>
       <c r="M11">
-        <v>1.008088317518554</v>
+        <v>1.032716562509645</v>
       </c>
       <c r="N11">
-        <v>1.002608293274785</v>
+        <v>1.029755449111889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9681785888704075</v>
+        <v>0.9970733768686049</v>
       </c>
       <c r="D12">
-        <v>0.9947307344212512</v>
+        <v>1.018581005530031</v>
       </c>
       <c r="E12">
-        <v>0.979421566193853</v>
+        <v>1.004599022300635</v>
       </c>
       <c r="F12">
-        <v>0.9909150004341882</v>
+        <v>1.016468658261567</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031904718097926</v>
+        <v>1.042697790166821</v>
       </c>
       <c r="J12">
-        <v>0.9993935303747284</v>
+        <v>1.027002115178896</v>
       </c>
       <c r="K12">
-        <v>1.009959586334753</v>
+        <v>1.033360675603854</v>
       </c>
       <c r="L12">
-        <v>0.9949539290260954</v>
+        <v>1.019638639542395</v>
       </c>
       <c r="M12">
-        <v>1.00621834933117</v>
+        <v>1.031287002878751</v>
       </c>
       <c r="N12">
-        <v>1.000812783819901</v>
+        <v>1.028460575981239</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9686861704137716</v>
+        <v>0.9974612522913173</v>
       </c>
       <c r="D13">
-        <v>0.9951304337877678</v>
+        <v>1.018891568224033</v>
       </c>
       <c r="E13">
-        <v>0.9798424550257618</v>
+        <v>1.004917248063446</v>
       </c>
       <c r="F13">
-        <v>0.9913714182219009</v>
+        <v>1.016825853113229</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032068969735588</v>
+        <v>1.042845721190481</v>
       </c>
       <c r="J13">
-        <v>0.9997798479304012</v>
+        <v>1.027280430826988</v>
       </c>
       <c r="K13">
-        <v>1.010307175717158</v>
+        <v>1.03362271983779</v>
       </c>
       <c r="L13">
-        <v>0.9953209353368924</v>
+        <v>1.019907124323223</v>
       </c>
       <c r="M13">
-        <v>1.006621219928489</v>
+        <v>1.031594666843333</v>
       </c>
       <c r="N13">
-        <v>1.001199649990814</v>
+        <v>1.028739286869475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9703406536220814</v>
+        <v>0.9987271400692532</v>
       </c>
       <c r="D14">
-        <v>0.9964335640344091</v>
+        <v>1.019905339199957</v>
       </c>
       <c r="E14">
-        <v>0.9812147408714647</v>
+        <v>1.00595610483122</v>
       </c>
       <c r="F14">
-        <v>0.9928595409505531</v>
+        <v>1.017991908044992</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032604036616785</v>
+        <v>1.043328247414812</v>
       </c>
       <c r="J14">
-        <v>1.001039057054584</v>
+        <v>1.028188697432075</v>
       </c>
       <c r="K14">
-        <v>1.011440110604245</v>
+        <v>1.034477875765336</v>
       </c>
       <c r="L14">
-        <v>0.9965172800527385</v>
+        <v>1.020783387784008</v>
       </c>
       <c r="M14">
-        <v>1.007934531475911</v>
+        <v>1.032598851428327</v>
       </c>
       <c r="N14">
-        <v>1.002460647336386</v>
+        <v>1.029648843317321</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9713535106304024</v>
+        <v>0.9995032975687014</v>
       </c>
       <c r="D15">
-        <v>0.9972315458426343</v>
+        <v>1.020527069513245</v>
       </c>
       <c r="E15">
-        <v>0.9820551265322258</v>
+        <v>1.006593274447456</v>
       </c>
       <c r="F15">
-        <v>0.9937708625659992</v>
+        <v>1.01870708018165</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0329313531644</v>
+        <v>1.043623893737263</v>
       </c>
       <c r="J15">
-        <v>1.001809921512186</v>
+        <v>1.028745540491268</v>
       </c>
       <c r="K15">
-        <v>1.012133641552432</v>
+        <v>1.035002149674126</v>
       </c>
       <c r="L15">
-        <v>0.9972497213930435</v>
+        <v>1.021320670594349</v>
       </c>
       <c r="M15">
-        <v>1.008738628318123</v>
+        <v>1.033214608184035</v>
       </c>
       <c r="N15">
-        <v>1.003232606509937</v>
+        <v>1.030206477157528</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9771528144495142</v>
+        <v>1.003964508549692</v>
       </c>
       <c r="D16">
-        <v>1.001803657308239</v>
+        <v>1.024102894581352</v>
       </c>
       <c r="E16">
-        <v>0.9868710701617935</v>
+        <v>1.010258728646878</v>
       </c>
       <c r="F16">
-        <v>0.9989932878260762</v>
+        <v>1.022821086592971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03480165673965</v>
+        <v>1.045320034821927</v>
       </c>
       <c r="J16">
-        <v>1.006223381328676</v>
+        <v>1.031945425960157</v>
       </c>
       <c r="K16">
-        <v>1.016103840113023</v>
+        <v>1.038014744935395</v>
       </c>
       <c r="L16">
-        <v>1.001444099473312</v>
+        <v>1.024409055356629</v>
       </c>
       <c r="M16">
-        <v>1.013344011322256</v>
+        <v>1.036754666974117</v>
       </c>
       <c r="N16">
-        <v>1.007652333945598</v>
+        <v>1.033410906830815</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9807098139970961</v>
+        <v>1.006714964950648</v>
       </c>
       <c r="D17">
-        <v>1.004610488741906</v>
+        <v>1.026309344816713</v>
       </c>
       <c r="E17">
-        <v>0.9898283901225542</v>
+        <v>1.012521218999832</v>
       </c>
       <c r="F17">
-        <v>1.002200201929449</v>
+        <v>1.025360313637239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035945365865704</v>
+        <v>1.046362903838561</v>
       </c>
       <c r="J17">
-        <v>1.008930014785397</v>
+        <v>1.033917520381827</v>
       </c>
       <c r="K17">
-        <v>1.018538159439269</v>
+        <v>1.039871282354873</v>
       </c>
       <c r="L17">
-        <v>1.004017146392994</v>
+        <v>1.026313210813823</v>
       </c>
       <c r="M17">
-        <v>1.01616976330139</v>
+        <v>1.038937830707747</v>
       </c>
       <c r="N17">
-        <v>1.010362811132282</v>
+        <v>1.035385801852766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9827568609900532</v>
+        <v>1.008302626044306</v>
       </c>
       <c r="D18">
-        <v>1.006226650495389</v>
+        <v>1.027583616787838</v>
       </c>
       <c r="E18">
-        <v>0.9915315024431247</v>
+        <v>1.013828121973331</v>
       </c>
       <c r="F18">
-        <v>1.004047053656187</v>
+        <v>1.026827031813407</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036602291136895</v>
+        <v>1.046963837279057</v>
       </c>
       <c r="J18">
-        <v>1.010487502037684</v>
+        <v>1.035055598454457</v>
       </c>
       <c r="K18">
-        <v>1.019938762504201</v>
+        <v>1.040942621574712</v>
       </c>
       <c r="L18">
-        <v>1.005498032009687</v>
+        <v>1.027412357930092</v>
       </c>
       <c r="M18">
-        <v>1.01779629343803</v>
+        <v>1.040198223589295</v>
       </c>
       <c r="N18">
-        <v>1.011922510195114</v>
+        <v>1.036525496126799</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9834502808241491</v>
+        <v>1.00884121471456</v>
       </c>
       <c r="D19">
-        <v>1.006774246536311</v>
+        <v>1.028015996684141</v>
       </c>
       <c r="E19">
-        <v>0.9921086115093651</v>
+        <v>1.014271619501986</v>
       </c>
       <c r="F19">
-        <v>1.004672869757374</v>
+        <v>1.0273247568248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036824598722685</v>
+        <v>1.047167514541978</v>
       </c>
       <c r="J19">
-        <v>1.011015053702503</v>
+        <v>1.03544162261596</v>
       </c>
       <c r="K19">
-        <v>1.020413141631761</v>
+        <v>1.041305999324184</v>
       </c>
       <c r="L19">
-        <v>1.005999682002761</v>
+        <v>1.027785223545699</v>
       </c>
       <c r="M19">
-        <v>1.018347314710707</v>
+        <v>1.040625821719587</v>
       </c>
       <c r="N19">
-        <v>1.012450811043808</v>
+        <v>1.036912068486889</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9803310762857753</v>
+        <v>1.006421601581545</v>
       </c>
       <c r="D20">
-        <v>1.004311538018244</v>
+        <v>1.026073938762715</v>
       </c>
       <c r="E20">
-        <v>0.9895133802250896</v>
+        <v>1.012279806392741</v>
       </c>
       <c r="F20">
-        <v>1.001858605789004</v>
+        <v>1.025089376833638</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035823719376711</v>
+        <v>1.046251779831092</v>
       </c>
       <c r="J20">
-        <v>1.008641838523218</v>
+        <v>1.033707206033894</v>
       </c>
       <c r="K20">
-        <v>1.01827899554219</v>
+        <v>1.03967329688166</v>
       </c>
       <c r="L20">
-        <v>1.00374316504161</v>
+        <v>1.026110113066768</v>
       </c>
       <c r="M20">
-        <v>1.015868852395088</v>
+        <v>1.03870495396403</v>
       </c>
       <c r="N20">
-        <v>1.010074225626757</v>
+        <v>1.035175188834337</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9698548178674075</v>
+        <v>0.9983551628178718</v>
       </c>
       <c r="D21">
-        <v>0.9960508560617783</v>
+        <v>1.01960741331578</v>
       </c>
       <c r="E21">
-        <v>0.9808117114330694</v>
+        <v>1.005650795380964</v>
       </c>
       <c r="F21">
-        <v>0.9924224916587306</v>
+        <v>1.01764921908281</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032446966373303</v>
+        <v>1.043186501524875</v>
       </c>
       <c r="J21">
-        <v>1.000669294543927</v>
+        <v>1.027921815333622</v>
       </c>
       <c r="K21">
-        <v>1.011107434435955</v>
+        <v>1.034226601149162</v>
       </c>
       <c r="L21">
-        <v>0.9961659645964831</v>
+        <v>1.020525896755009</v>
       </c>
       <c r="M21">
-        <v>1.007548858507462</v>
+        <v>1.032303762533831</v>
       </c>
       <c r="N21">
-        <v>1.002090359720552</v>
+        <v>1.029381582215676</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9629867228001312</v>
+        <v>0.9931193049537546</v>
       </c>
       <c r="D22">
-        <v>0.990644841927665</v>
+        <v>1.015416773271926</v>
       </c>
       <c r="E22">
-        <v>0.9751196266224531</v>
+        <v>1.001357280935603</v>
       </c>
       <c r="F22">
-        <v>0.9862498833038795</v>
+        <v>1.012829788816502</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030222149456889</v>
+        <v>1.041187638134471</v>
       </c>
       <c r="J22">
-        <v>0.9954420321062927</v>
+        <v>1.024164497720928</v>
       </c>
       <c r="K22">
-        <v>1.006403932638596</v>
+        <v>1.030688885036836</v>
       </c>
       <c r="L22">
-        <v>0.9912006238276621</v>
+        <v>1.016901897692513</v>
       </c>
       <c r="M22">
-        <v>1.002098744152535</v>
+        <v>1.02815129882922</v>
       </c>
       <c r="N22">
-        <v>0.9968556739706809</v>
+        <v>1.025618928781001</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9666559694317391</v>
+        <v>0.9959112319778141</v>
       </c>
       <c r="D23">
-        <v>0.9935319915976689</v>
+        <v>1.017650680720719</v>
       </c>
       <c r="E23">
-        <v>0.9781593342070477</v>
+        <v>1.003645802325563</v>
       </c>
       <c r="F23">
-        <v>0.9895462150517639</v>
+        <v>1.015398693918289</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031411735792422</v>
+        <v>1.042254335733753</v>
       </c>
       <c r="J23">
-        <v>0.9982346692631181</v>
+        <v>1.02616818480989</v>
       </c>
       <c r="K23">
-        <v>1.008916868486857</v>
+        <v>1.03257549206131</v>
       </c>
       <c r="L23">
-        <v>0.9938530668053649</v>
+        <v>1.0188342337246</v>
       </c>
       <c r="M23">
-        <v>1.005009959824083</v>
+        <v>1.030365255390056</v>
       </c>
       <c r="N23">
-        <v>0.9996522769925886</v>
+        <v>1.027625461335456</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9805022967944622</v>
+        <v>1.006554211112099</v>
       </c>
       <c r="D24">
-        <v>1.00444668568682</v>
+        <v>1.026180347803938</v>
       </c>
       <c r="E24">
-        <v>0.9896557868840883</v>
+        <v>1.012388929708439</v>
       </c>
       <c r="F24">
-        <v>1.002013031304968</v>
+        <v>1.025211845793511</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03587871754604</v>
+        <v>1.046302014657667</v>
       </c>
       <c r="J24">
-        <v>1.008772118385872</v>
+        <v>1.033802275667843</v>
       </c>
       <c r="K24">
-        <v>1.018396159960325</v>
+        <v>1.039762793584214</v>
       </c>
       <c r="L24">
-        <v>1.003867026780348</v>
+        <v>1.026201919682336</v>
       </c>
       <c r="M24">
-        <v>1.016004887840714</v>
+        <v>1.038810221032469</v>
       </c>
       <c r="N24">
-        <v>1.010204690501759</v>
+        <v>1.035270393478069</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.995494965852209</v>
+        <v>1.018257877107952</v>
       </c>
       <c r="D25">
-        <v>1.016296204549543</v>
+        <v>1.035583911866794</v>
       </c>
       <c r="E25">
-        <v>1.00214843165002</v>
+        <v>1.022038076338391</v>
       </c>
       <c r="F25">
-        <v>1.015560112320774</v>
+        <v>1.036040490001344</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040666533459646</v>
+        <v>1.050712721978969</v>
       </c>
       <c r="J25">
-        <v>1.020174899385022</v>
+        <v>1.042186035499065</v>
       </c>
       <c r="K25">
-        <v>1.028646702479745</v>
+        <v>1.047653851438356</v>
       </c>
       <c r="L25">
-        <v>1.014713487285184</v>
+        <v>1.034303647876502</v>
       </c>
       <c r="M25">
-        <v>1.027921585910359</v>
+        <v>1.048103948282209</v>
       </c>
       <c r="N25">
-        <v>1.021623664757846</v>
+        <v>1.043666059209883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027136108155939</v>
+        <v>1.015321876301248</v>
       </c>
       <c r="D2">
-        <v>1.042732534406307</v>
+        <v>1.033236018836386</v>
       </c>
       <c r="E2">
-        <v>1.029381799171059</v>
+        <v>1.019587028389579</v>
       </c>
       <c r="F2">
-        <v>1.044281613710947</v>
+        <v>1.03408258182511</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054024125574748</v>
+        <v>1.0488785707106</v>
       </c>
       <c r="J2">
-        <v>1.048534405892446</v>
+        <v>1.037053774847585</v>
       </c>
       <c r="K2">
-        <v>1.053626986715598</v>
+        <v>1.044250956260712</v>
       </c>
       <c r="L2">
-        <v>1.040446429794189</v>
+        <v>1.030780065892377</v>
       </c>
       <c r="M2">
-        <v>1.055156671532741</v>
+        <v>1.045086666369091</v>
       </c>
       <c r="N2">
-        <v>1.050023445017391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015937775701053</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042359539447929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033345741890003</v>
+        <v>1.019472856302841</v>
       </c>
       <c r="D3">
-        <v>1.047739573999942</v>
+        <v>1.036164923487125</v>
       </c>
       <c r="E3">
-        <v>1.034530454361615</v>
+        <v>1.022897786533181</v>
       </c>
       <c r="F3">
-        <v>1.050059642732116</v>
+        <v>1.037757786442748</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056319238356803</v>
+        <v>1.050006797853982</v>
       </c>
       <c r="J3">
-        <v>1.052966878101079</v>
+        <v>1.039446389794143</v>
       </c>
       <c r="K3">
-        <v>1.057795991776898</v>
+        <v>1.046355069195141</v>
       </c>
       <c r="L3">
-        <v>1.044739782343187</v>
+        <v>1.033245834659421</v>
       </c>
       <c r="M3">
-        <v>1.060089692896194</v>
+        <v>1.047929310077959</v>
       </c>
       <c r="N3">
-        <v>1.054462211844972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01676165840333</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043844665976756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037262481964598</v>
+        <v>1.022110377475417</v>
       </c>
       <c r="D4">
-        <v>1.050900580799333</v>
+        <v>1.038030444563453</v>
       </c>
       <c r="E4">
-        <v>1.03778319484099</v>
+        <v>1.025007170918065</v>
       </c>
       <c r="F4">
-        <v>1.053710210054805</v>
+        <v>1.040099712772581</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057756875396678</v>
+        <v>1.05071623302212</v>
       </c>
       <c r="J4">
-        <v>1.05575876105523</v>
+        <v>1.040964922957459</v>
       </c>
       <c r="K4">
-        <v>1.060421170901025</v>
+        <v>1.047690559855008</v>
       </c>
       <c r="L4">
-        <v>1.047446032190761</v>
+        <v>1.034812866614683</v>
       </c>
       <c r="M4">
-        <v>1.063200895742933</v>
+        <v>1.049737109083144</v>
       </c>
       <c r="N4">
-        <v>1.05725805959315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017284384280324</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044789852957783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03888595520641</v>
+        <v>1.023212415710647</v>
       </c>
       <c r="D5">
-        <v>1.052211410255481</v>
+        <v>1.038813088782941</v>
       </c>
       <c r="E5">
-        <v>1.039132629263957</v>
+        <v>1.025890394032663</v>
       </c>
       <c r="F5">
-        <v>1.055224753708692</v>
+        <v>1.041081013954894</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058350322724495</v>
+        <v>1.051012588622239</v>
       </c>
       <c r="J5">
-        <v>1.056915000002552</v>
+        <v>1.0416007517821</v>
       </c>
       <c r="K5">
-        <v>1.0615081796434</v>
+        <v>1.048251159900771</v>
       </c>
       <c r="L5">
-        <v>1.048567278491437</v>
+        <v>1.035469046384757</v>
       </c>
       <c r="M5">
-        <v>1.064490346779327</v>
+        <v>1.0504948539997</v>
       </c>
       <c r="N5">
-        <v>1.058415940532401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017503700475728</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045193360736444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039157218907319</v>
+        <v>1.023402217136012</v>
       </c>
       <c r="D6">
-        <v>1.05243046840663</v>
+        <v>1.038950524748429</v>
       </c>
       <c r="E6">
-        <v>1.039358172170882</v>
+        <v>1.026043210490594</v>
       </c>
       <c r="F6">
-        <v>1.055477897141793</v>
+        <v>1.041251557093577</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058449335735454</v>
+        <v>1.051065650431452</v>
       </c>
       <c r="J6">
-        <v>1.057108134938104</v>
+        <v>1.041712397299565</v>
       </c>
       <c r="K6">
-        <v>1.061689739040609</v>
+        <v>1.048351293403813</v>
       </c>
       <c r="L6">
-        <v>1.048754595905182</v>
+        <v>1.035583744584164</v>
       </c>
       <c r="M6">
-        <v>1.064705789994679</v>
+        <v>1.050627854707504</v>
       </c>
       <c r="N6">
-        <v>1.058609349741714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017542803064524</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045272845880698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03728426431848</v>
+        <v>1.022139747913331</v>
       </c>
       <c r="D7">
-        <v>1.050918166067221</v>
+        <v>1.038058221609795</v>
       </c>
       <c r="E7">
-        <v>1.037801295771726</v>
+        <v>1.025032393257899</v>
       </c>
       <c r="F7">
-        <v>1.053730525430566</v>
+        <v>1.040129724167561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057764847494789</v>
+        <v>1.050729870847383</v>
       </c>
       <c r="J7">
-        <v>1.055774278423338</v>
+        <v>1.040987695138868</v>
       </c>
       <c r="K7">
-        <v>1.060435759929898</v>
+        <v>1.047715176427599</v>
       </c>
       <c r="L7">
-        <v>1.047461078080745</v>
+        <v>1.034834899305214</v>
       </c>
       <c r="M7">
-        <v>1.063218197063122</v>
+        <v>1.049763944591155</v>
       </c>
       <c r="N7">
-        <v>1.057273598997702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017293862878422</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044827234750498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029256364029437</v>
+        <v>1.016753442926888</v>
       </c>
       <c r="D8">
-        <v>1.044441535526476</v>
+        <v>1.034253798273873</v>
       </c>
       <c r="E8">
-        <v>1.031138649705914</v>
+        <v>1.020729833862487</v>
       </c>
       <c r="F8">
-        <v>1.046253188208648</v>
+        <v>1.035353483101946</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054809860759863</v>
+        <v>1.04927635944544</v>
       </c>
       <c r="J8">
-        <v>1.050048649120128</v>
+        <v>1.037886579073186</v>
       </c>
       <c r="K8">
-        <v>1.055051375354177</v>
+        <v>1.044988940114951</v>
       </c>
       <c r="L8">
-        <v>1.041912721927184</v>
+        <v>1.031636140971045</v>
       </c>
       <c r="M8">
-        <v>1.056841063387528</v>
+        <v>1.046074951737246</v>
       </c>
       <c r="N8">
-        <v>1.051539838644142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016226717021334</v>
+      </c>
+      <c r="Q8">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R8">
+        <v>1.042904131310001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014279240984641</v>
+        <v>1.006849432297824</v>
       </c>
       <c r="D9">
-        <v>1.032384529608768</v>
+        <v>1.027284996310156</v>
       </c>
       <c r="E9">
-        <v>1.018753819933012</v>
+        <v>1.012862967162707</v>
       </c>
       <c r="F9">
-        <v>1.032354870453501</v>
+        <v>1.026619910670634</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049218642960475</v>
+        <v>1.046536888726459</v>
       </c>
       <c r="J9">
-        <v>1.039337646637004</v>
+        <v>1.032162616531073</v>
       </c>
       <c r="K9">
-        <v>1.044973166355513</v>
+        <v>1.039950378023314</v>
       </c>
       <c r="L9">
-        <v>1.031549784543557</v>
+        <v>1.02575074284362</v>
       </c>
       <c r="M9">
-        <v>1.044943950764079</v>
+        <v>1.03929537314806</v>
       </c>
       <c r="N9">
-        <v>1.040813625308923</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014253050353799</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039338396406765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00365138411947</v>
+        <v>0.9999640087327918</v>
       </c>
       <c r="D10">
-        <v>1.023851791183694</v>
+        <v>1.022471142020382</v>
       </c>
       <c r="E10">
-        <v>1.010001283906043</v>
+        <v>1.007429271599548</v>
       </c>
       <c r="F10">
-        <v>1.022532146587727</v>
+        <v>1.020589319054457</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045201168379557</v>
+        <v>1.044597620961427</v>
       </c>
       <c r="J10">
-        <v>1.031720876692055</v>
+        <v>1.028179054704715</v>
       </c>
       <c r="K10">
-        <v>1.037803346652998</v>
+        <v>1.036446189498655</v>
       </c>
       <c r="L10">
-        <v>1.024192279883784</v>
+        <v>1.021665671448678</v>
       </c>
       <c r="M10">
-        <v>1.03650615433155</v>
+        <v>1.034596518373894</v>
       </c>
       <c r="N10">
-        <v>1.033186038676996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012879756230089</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036877488549461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9988755183887938</v>
+        <v>0.9969278412570164</v>
       </c>
       <c r="D11">
-        <v>1.020024186600959</v>
+        <v>1.020364582054487</v>
       </c>
       <c r="E11">
-        <v>1.006077900316358</v>
+        <v>1.005044789383552</v>
       </c>
       <c r="F11">
-        <v>1.018128614516939</v>
+        <v>1.017945016864602</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043384778479798</v>
+        <v>1.043741539060465</v>
       </c>
       <c r="J11">
-        <v>1.028295152048877</v>
+        <v>1.026428986476956</v>
       </c>
       <c r="K11">
-        <v>1.034578104443398</v>
+        <v>1.034912406358381</v>
       </c>
       <c r="L11">
-        <v>1.020886099408163</v>
+        <v>1.019872191355447</v>
       </c>
       <c r="M11">
-        <v>1.032716562509645</v>
+        <v>1.032536269633267</v>
       </c>
       <c r="N11">
-        <v>1.029755449111889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012278950513897</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035825830172963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9970733768686049</v>
+        <v>0.9957775185685739</v>
       </c>
       <c r="D12">
-        <v>1.018581005530031</v>
+        <v>1.019562788024253</v>
       </c>
       <c r="E12">
-        <v>1.004599022300635</v>
+        <v>1.004141293778981</v>
       </c>
       <c r="F12">
-        <v>1.016468658261567</v>
+        <v>1.016941964701759</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042697790166821</v>
+        <v>1.043411992745112</v>
       </c>
       <c r="J12">
-        <v>1.027002115178896</v>
+        <v>1.025761662723413</v>
       </c>
       <c r="K12">
-        <v>1.033360675603854</v>
+        <v>1.034324553829527</v>
       </c>
       <c r="L12">
-        <v>1.019638639542395</v>
+        <v>1.019189580904023</v>
       </c>
       <c r="M12">
-        <v>1.031287002878751</v>
+        <v>1.031751625456032</v>
       </c>
       <c r="N12">
-        <v>1.028460575981239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012048484906972</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035410200152048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9974612522913173</v>
+        <v>0.9960226564232375</v>
       </c>
       <c r="D13">
-        <v>1.018891568224033</v>
+        <v>1.019732651579801</v>
       </c>
       <c r="E13">
-        <v>1.004917248063446</v>
+        <v>1.004333474753545</v>
       </c>
       <c r="F13">
-        <v>1.016825853113229</v>
+        <v>1.017155108465365</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042845721190481</v>
+        <v>1.04348149202625</v>
       </c>
       <c r="J13">
-        <v>1.027280430826988</v>
+        <v>1.025903063026544</v>
       </c>
       <c r="K13">
-        <v>1.03362271983779</v>
+        <v>1.034448525423592</v>
       </c>
       <c r="L13">
-        <v>1.019907124323223</v>
+        <v>1.019334363892572</v>
       </c>
       <c r="M13">
-        <v>1.031594666843333</v>
+        <v>1.031917905871162</v>
       </c>
       <c r="N13">
-        <v>1.028739286869475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012097046554352</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035495360890029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9987271400692532</v>
+        <v>0.9968320818793297</v>
       </c>
       <c r="D14">
-        <v>1.019905339199957</v>
+        <v>1.02029740703256</v>
       </c>
       <c r="E14">
-        <v>1.00595610483122</v>
+        <v>1.00496942369826</v>
       </c>
       <c r="F14">
-        <v>1.017991908044992</v>
+        <v>1.01786125468145</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043328247414812</v>
+        <v>1.043713796472844</v>
       </c>
       <c r="J14">
-        <v>1.028188697432075</v>
+        <v>1.026373089740372</v>
       </c>
       <c r="K14">
-        <v>1.034477875765336</v>
+        <v>1.034862914229892</v>
       </c>
       <c r="L14">
-        <v>1.020783387784008</v>
+        <v>1.019815075254721</v>
       </c>
       <c r="M14">
-        <v>1.032598851428327</v>
+        <v>1.03247055357226</v>
       </c>
       <c r="N14">
-        <v>1.029648843317321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012259530470153</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035789770690035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9995032975687014</v>
+        <v>0.9973334694786165</v>
       </c>
       <c r="D15">
-        <v>1.020527069513245</v>
+        <v>1.020649276187046</v>
       </c>
       <c r="E15">
-        <v>1.006593274447456</v>
+        <v>1.005364118083575</v>
       </c>
       <c r="F15">
-        <v>1.01870708018165</v>
+        <v>1.018299946344611</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043623893737263</v>
+        <v>1.043859084618433</v>
       </c>
       <c r="J15">
-        <v>1.028745540491268</v>
+        <v>1.026665838369547</v>
       </c>
       <c r="K15">
-        <v>1.035002149674126</v>
+        <v>1.035122182955953</v>
       </c>
       <c r="L15">
-        <v>1.021320670594349</v>
+        <v>1.020114209680134</v>
       </c>
       <c r="M15">
-        <v>1.033214608184035</v>
+        <v>1.032814753585799</v>
       </c>
       <c r="N15">
-        <v>1.030206477157528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012361265666764</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035978948168359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003964508549692</v>
+        <v>1.000200334939738</v>
       </c>
       <c r="D16">
-        <v>1.024102894581352</v>
+        <v>1.02265164370986</v>
       </c>
       <c r="E16">
-        <v>1.010258728646878</v>
+        <v>1.007620016378936</v>
       </c>
       <c r="F16">
-        <v>1.022821086592971</v>
+        <v>1.020804669446653</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045320034821927</v>
+        <v>1.044677544731124</v>
       </c>
       <c r="J16">
-        <v>1.031945425960157</v>
+        <v>1.028329246894222</v>
       </c>
       <c r="K16">
-        <v>1.038014744935395</v>
+        <v>1.036588101857533</v>
       </c>
       <c r="L16">
-        <v>1.024409055356629</v>
+        <v>1.021816761068064</v>
       </c>
       <c r="M16">
-        <v>1.036754666974117</v>
+        <v>1.034772576081732</v>
       </c>
       <c r="N16">
-        <v>1.033410906830815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012935926694221</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037018561371141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006714964950648</v>
+        <v>1.001978007249871</v>
       </c>
       <c r="D17">
-        <v>1.026309344816713</v>
+        <v>1.023895224279295</v>
       </c>
       <c r="E17">
-        <v>1.012521218999832</v>
+        <v>1.009021206482686</v>
       </c>
       <c r="F17">
-        <v>1.025360313637239</v>
+        <v>1.022360451675808</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046362903838561</v>
+        <v>1.045182839581063</v>
       </c>
       <c r="J17">
-        <v>1.033917520381827</v>
+        <v>1.029360385195431</v>
       </c>
       <c r="K17">
-        <v>1.039871282354873</v>
+        <v>1.037496865584628</v>
       </c>
       <c r="L17">
-        <v>1.026313210813823</v>
+        <v>1.022872888777217</v>
       </c>
       <c r="M17">
-        <v>1.038937830707747</v>
+        <v>1.035987460075309</v>
       </c>
       <c r="N17">
-        <v>1.035385801852766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013292124551986</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037663667510005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008302626044306</v>
+        <v>1.00299651279741</v>
       </c>
       <c r="D18">
-        <v>1.027583616787838</v>
+        <v>1.024603421109233</v>
       </c>
       <c r="E18">
-        <v>1.013828121973331</v>
+        <v>1.009823361110597</v>
       </c>
       <c r="F18">
-        <v>1.026827031813407</v>
+        <v>1.023249935450171</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046963837279057</v>
+        <v>1.045467432658438</v>
       </c>
       <c r="J18">
-        <v>1.035055598454457</v>
+        <v>1.02994679151253</v>
       </c>
       <c r="K18">
-        <v>1.040942621574712</v>
+        <v>1.038010564342236</v>
       </c>
       <c r="L18">
-        <v>1.027412357930092</v>
+        <v>1.023474657860898</v>
       </c>
       <c r="M18">
-        <v>1.040198223589295</v>
+        <v>1.036679060182317</v>
       </c>
       <c r="N18">
-        <v>1.036525496126799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013493305087867</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038015253239279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00884121471456</v>
+        <v>1.003351190837473</v>
       </c>
       <c r="D19">
-        <v>1.028015996684141</v>
+        <v>1.024854041158165</v>
       </c>
       <c r="E19">
-        <v>1.014271619501986</v>
+        <v>1.010103986808434</v>
       </c>
       <c r="F19">
-        <v>1.0273247568248</v>
+        <v>1.023562043804934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047167514541978</v>
+        <v>1.045569607683265</v>
       </c>
       <c r="J19">
-        <v>1.03544162261596</v>
+        <v>1.030154298661629</v>
       </c>
       <c r="K19">
-        <v>1.041305999324184</v>
+        <v>1.038194802682584</v>
       </c>
       <c r="L19">
-        <v>1.027785223545699</v>
+        <v>1.023686941651037</v>
       </c>
       <c r="M19">
-        <v>1.040625821719587</v>
+        <v>1.036923661619983</v>
       </c>
       <c r="N19">
-        <v>1.036912068486889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013565574719339</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038151893682995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006421601581545</v>
+        <v>1.0017871658749</v>
       </c>
       <c r="D20">
-        <v>1.026073938762715</v>
+        <v>1.023761260921453</v>
       </c>
       <c r="E20">
-        <v>1.012279806392741</v>
+        <v>1.008870579863702</v>
       </c>
       <c r="F20">
-        <v>1.025089376833638</v>
+        <v>1.022193113343156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046251779831092</v>
+        <v>1.045128357951509</v>
       </c>
       <c r="J20">
-        <v>1.033707206033894</v>
+        <v>1.029249368682808</v>
       </c>
       <c r="K20">
-        <v>1.03967329688166</v>
+        <v>1.037398780154702</v>
       </c>
       <c r="L20">
-        <v>1.026110113066768</v>
+        <v>1.022759223780408</v>
       </c>
       <c r="M20">
-        <v>1.03870495396403</v>
+        <v>1.03585663482224</v>
       </c>
       <c r="N20">
-        <v>1.035175188834337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013253668420506</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037592985422976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9983551628178718</v>
+        <v>0.9966061605989132</v>
       </c>
       <c r="D21">
-        <v>1.01960741331578</v>
+        <v>1.020145060644804</v>
       </c>
       <c r="E21">
-        <v>1.005650795380964</v>
+        <v>1.004793527043303</v>
       </c>
       <c r="F21">
-        <v>1.01764921908281</v>
+        <v>1.017667140512767</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043186501524875</v>
+        <v>1.04365337688403</v>
       </c>
       <c r="J21">
-        <v>1.027921815333622</v>
+        <v>1.026246465358796</v>
       </c>
       <c r="K21">
-        <v>1.034226601149162</v>
+        <v>1.034754572002563</v>
       </c>
       <c r="L21">
-        <v>1.020525896755009</v>
+        <v>1.019684650130926</v>
       </c>
       <c r="M21">
-        <v>1.032303762533831</v>
+        <v>1.032321359586245</v>
       </c>
       <c r="N21">
-        <v>1.029381582215676</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012217280104564</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03572667041801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9931193049537546</v>
+        <v>0.9932641101028169</v>
       </c>
       <c r="D22">
-        <v>1.015416773271926</v>
+        <v>1.017812455626238</v>
       </c>
       <c r="E22">
-        <v>1.001357280935603</v>
+        <v>1.002169598911978</v>
       </c>
       <c r="F22">
-        <v>1.012829788816502</v>
+        <v>1.01475288613439</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041187638134471</v>
+        <v>1.042689204950881</v>
       </c>
       <c r="J22">
-        <v>1.024164497720928</v>
+        <v>1.024302821740436</v>
       </c>
       <c r="K22">
-        <v>1.030688885036836</v>
+        <v>1.033039114734177</v>
       </c>
       <c r="L22">
-        <v>1.016901897692513</v>
+        <v>1.017698197802334</v>
       </c>
       <c r="M22">
-        <v>1.02815129882922</v>
+        <v>1.030037643339163</v>
       </c>
       <c r="N22">
-        <v>1.025618928781001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011544463275853</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034500284347559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9959112319778141</v>
+        <v>0.995028059859709</v>
       </c>
       <c r="D23">
-        <v>1.017650680720719</v>
+        <v>1.019036596996487</v>
       </c>
       <c r="E23">
-        <v>1.003645802325563</v>
+        <v>1.00355175845065</v>
       </c>
       <c r="F23">
-        <v>1.015398693918289</v>
+        <v>1.016286547656705</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042254335733753</v>
+        <v>1.043193520480044</v>
       </c>
       <c r="J23">
-        <v>1.02616818480989</v>
+        <v>1.025323291865398</v>
       </c>
       <c r="K23">
-        <v>1.03257549206131</v>
+        <v>1.033935834021153</v>
       </c>
       <c r="L23">
-        <v>1.0188342337246</v>
+        <v>1.018741992636512</v>
       </c>
       <c r="M23">
-        <v>1.030365255390056</v>
+        <v>1.031236620178947</v>
       </c>
       <c r="N23">
-        <v>1.027625461335456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011895891886045</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035124673372597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006554211112099</v>
+        <v>1.001849934947567</v>
       </c>
       <c r="D24">
-        <v>1.026180347803938</v>
+        <v>1.023794886550808</v>
       </c>
       <c r="E24">
-        <v>1.012388929708439</v>
+        <v>1.00891701943326</v>
       </c>
       <c r="F24">
-        <v>1.025211845793511</v>
+        <v>1.022242237453846</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046302014657667</v>
+        <v>1.045137664541696</v>
       </c>
       <c r="J24">
-        <v>1.033802275667843</v>
+        <v>1.02927695864081</v>
       </c>
       <c r="K24">
-        <v>1.039762793584214</v>
+        <v>1.037416637141317</v>
       </c>
       <c r="L24">
-        <v>1.026201919682336</v>
+        <v>1.022789331111911</v>
       </c>
       <c r="M24">
-        <v>1.038810221032469</v>
+        <v>1.035889697649616</v>
       </c>
       <c r="N24">
-        <v>1.035270393478069</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013260338307053</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037578269142469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018257877107952</v>
+        <v>1.009482605478176</v>
       </c>
       <c r="D25">
-        <v>1.035583911866794</v>
+        <v>1.029144003384797</v>
       </c>
       <c r="E25">
-        <v>1.022038076338391</v>
+        <v>1.014951743931801</v>
       </c>
       <c r="F25">
-        <v>1.036040490001344</v>
+        <v>1.028941357123629</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050712721978969</v>
+        <v>1.047280832556592</v>
       </c>
       <c r="J25">
-        <v>1.042186035499065</v>
+        <v>1.033695002739479</v>
       </c>
       <c r="K25">
-        <v>1.047653851438356</v>
+        <v>1.041306135876158</v>
       </c>
       <c r="L25">
-        <v>1.034303647876502</v>
+        <v>1.027322304013935</v>
       </c>
       <c r="M25">
-        <v>1.048103948282209</v>
+        <v>1.041106414402982</v>
       </c>
       <c r="N25">
-        <v>1.043666059209883</v>
+        <v>1.014784412181862</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040325470894598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015321876301248</v>
+        <v>1.014313983819727</v>
       </c>
       <c r="D2">
-        <v>1.033236018836386</v>
+        <v>1.031704559705438</v>
       </c>
       <c r="E2">
-        <v>1.019587028389579</v>
+        <v>1.018740493677305</v>
       </c>
       <c r="F2">
-        <v>1.03408258182511</v>
+        <v>1.032645236992601</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.0488785707106</v>
+        <v>1.048199207565344</v>
       </c>
       <c r="J2">
-        <v>1.037053774847585</v>
+        <v>1.036074835358065</v>
       </c>
       <c r="K2">
-        <v>1.044250956260712</v>
+        <v>1.042739186928515</v>
       </c>
       <c r="L2">
-        <v>1.030780065892377</v>
+        <v>1.029944774520907</v>
       </c>
       <c r="M2">
-        <v>1.045086666369091</v>
+        <v>1.04366776138143</v>
       </c>
       <c r="N2">
-        <v>1.015937775701053</v>
+        <v>1.016554065979753</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042359539447929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041299329765555</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023302272104699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019472856302841</v>
+        <v>1.01822757226139</v>
       </c>
       <c r="D3">
-        <v>1.036164923487125</v>
+        <v>1.034360413506108</v>
       </c>
       <c r="E3">
-        <v>1.022897786533181</v>
+        <v>1.021841480272973</v>
       </c>
       <c r="F3">
-        <v>1.037757786442748</v>
+        <v>1.036052553013326</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050006797853982</v>
+        <v>1.049183335435475</v>
       </c>
       <c r="J3">
-        <v>1.039446389794143</v>
+        <v>1.038233374613969</v>
       </c>
       <c r="K3">
-        <v>1.046355069195141</v>
+        <v>1.044571741411801</v>
       </c>
       <c r="L3">
-        <v>1.033245834659421</v>
+        <v>1.032202319166572</v>
       </c>
       <c r="M3">
-        <v>1.047929310077959</v>
+        <v>1.04624401511373</v>
       </c>
       <c r="N3">
-        <v>1.01676165840333</v>
+        <v>1.017142801574026</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043844665976756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042592164294589</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023699116782619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022110377475417</v>
+        <v>1.020716081592489</v>
       </c>
       <c r="D4">
-        <v>1.038030444563453</v>
+        <v>1.036053673323857</v>
       </c>
       <c r="E4">
-        <v>1.025007170918065</v>
+        <v>1.023819047070417</v>
       </c>
       <c r="F4">
-        <v>1.040099712772581</v>
+        <v>1.038225813157119</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05071623302212</v>
+        <v>1.049801835464358</v>
       </c>
       <c r="J4">
-        <v>1.040964922957459</v>
+        <v>1.039604313170538</v>
       </c>
       <c r="K4">
-        <v>1.047690559855008</v>
+        <v>1.04573559623702</v>
       </c>
       <c r="L4">
-        <v>1.034812866614683</v>
+        <v>1.033638251517283</v>
       </c>
       <c r="M4">
-        <v>1.049737109083144</v>
+        <v>1.047883778694487</v>
       </c>
       <c r="N4">
-        <v>1.017284384280324</v>
+        <v>1.017516692964069</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044789852957783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.0434160730068</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023948825624349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023212415710647</v>
+        <v>1.021756178139527</v>
       </c>
       <c r="D5">
-        <v>1.038813088782941</v>
+        <v>1.036764597664512</v>
       </c>
       <c r="E5">
-        <v>1.025890394032663</v>
+        <v>1.024647434155913</v>
       </c>
       <c r="F5">
-        <v>1.041081013954894</v>
+        <v>1.039136948152618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051012588622239</v>
+        <v>1.050060288800742</v>
       </c>
       <c r="J5">
-        <v>1.0416007517821</v>
+        <v>1.040178645968795</v>
       </c>
       <c r="K5">
-        <v>1.048251159900771</v>
+        <v>1.04622466704153</v>
       </c>
       <c r="L5">
-        <v>1.035469046384757</v>
+        <v>1.034239838018569</v>
       </c>
       <c r="M5">
-        <v>1.0504948539997</v>
+        <v>1.048571551147704</v>
       </c>
       <c r="N5">
-        <v>1.017503700475728</v>
+        <v>1.01767368667356</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045193360736444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043769716997822</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024053737744389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023402217136012</v>
+        <v>1.021935219251886</v>
       </c>
       <c r="D6">
-        <v>1.038950524748429</v>
+        <v>1.036889663104245</v>
       </c>
       <c r="E6">
-        <v>1.026043210490594</v>
+        <v>1.024790706857982</v>
       </c>
       <c r="F6">
-        <v>1.041251557093577</v>
+        <v>1.039295369443036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051065650431452</v>
+        <v>1.05010676749769</v>
       </c>
       <c r="J6">
-        <v>1.041712397299565</v>
+        <v>1.040279606483355</v>
       </c>
       <c r="K6">
-        <v>1.048351293403813</v>
+        <v>1.046312461566614</v>
       </c>
       <c r="L6">
-        <v>1.035583744584164</v>
+        <v>1.034345033806122</v>
       </c>
       <c r="M6">
-        <v>1.050627854707504</v>
+        <v>1.048692462289995</v>
       </c>
       <c r="N6">
-        <v>1.017542803064524</v>
+        <v>1.017701729430013</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045272845880698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043841348919013</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024073200304386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022139747913331</v>
+        <v>1.020753008520409</v>
       </c>
       <c r="D7">
-        <v>1.038058221609795</v>
+        <v>1.036086617048123</v>
       </c>
       <c r="E7">
-        <v>1.025032393257899</v>
+        <v>1.023851165214133</v>
       </c>
       <c r="F7">
-        <v>1.040129724167561</v>
+        <v>1.038261668800012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050729870847383</v>
+        <v>1.049819093679259</v>
       </c>
       <c r="J7">
-        <v>1.040987695138868</v>
+        <v>1.03963444416603</v>
       </c>
       <c r="K7">
-        <v>1.047715176427599</v>
+        <v>1.045765313685555</v>
       </c>
       <c r="L7">
-        <v>1.034834899305214</v>
+        <v>1.033667096196081</v>
       </c>
       <c r="M7">
-        <v>1.049763944591155</v>
+        <v>1.047916385883485</v>
       </c>
       <c r="N7">
-        <v>1.017293862878422</v>
+        <v>1.017552263156961</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044827234750498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043459065885803</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023957780386173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016753442926888</v>
+        <v>1.01569227352396</v>
       </c>
       <c r="D8">
-        <v>1.034253798273873</v>
+        <v>1.032650013734898</v>
       </c>
       <c r="E8">
-        <v>1.020729833862487</v>
+        <v>1.019837078874454</v>
       </c>
       <c r="F8">
-        <v>1.035353483101946</v>
+        <v>1.033847600923166</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04927635944544</v>
+        <v>1.048561842237991</v>
       </c>
       <c r="J8">
-        <v>1.037886579073186</v>
+        <v>1.036854866340093</v>
       </c>
       <c r="K8">
-        <v>1.044988940114951</v>
+        <v>1.043405161698396</v>
       </c>
       <c r="L8">
-        <v>1.031636140971045</v>
+        <v>1.030754884845456</v>
       </c>
       <c r="M8">
-        <v>1.046074951737246</v>
+        <v>1.044587802486566</v>
       </c>
       <c r="N8">
-        <v>1.016226717021334</v>
+        <v>1.016847944180381</v>
       </c>
       <c r="Q8">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042904131310001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041795276306605</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023451682249804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006849432297824</v>
+        <v>1.006371252510601</v>
       </c>
       <c r="D9">
-        <v>1.027284996310156</v>
+        <v>1.026344143381103</v>
       </c>
       <c r="E9">
-        <v>1.012862967162707</v>
+        <v>1.012484532305831</v>
       </c>
       <c r="F9">
-        <v>1.026619910670634</v>
+        <v>1.025767108544871</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046536888726459</v>
+        <v>1.046172682194733</v>
       </c>
       <c r="J9">
-        <v>1.032162616531073</v>
+        <v>1.031701014252234</v>
       </c>
       <c r="K9">
-        <v>1.039950378023314</v>
+        <v>1.039023790571872</v>
       </c>
       <c r="L9">
-        <v>1.02575074284362</v>
+        <v>1.025378252758153</v>
       </c>
       <c r="M9">
-        <v>1.03929537314806</v>
+        <v>1.038455521402733</v>
       </c>
       <c r="N9">
-        <v>1.014253050353799</v>
+        <v>1.015450631565413</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039338396406765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038693945280545</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022488297087065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9999640087327918</v>
+        <v>0.9999472420981957</v>
       </c>
       <c r="D10">
-        <v>1.022471142020382</v>
+        <v>1.022032661080133</v>
       </c>
       <c r="E10">
-        <v>1.007429271599548</v>
+        <v>1.00745800951397</v>
       </c>
       <c r="F10">
-        <v>1.020589319054457</v>
+        <v>1.020237505536127</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044597620961427</v>
+        <v>1.044503303933872</v>
       </c>
       <c r="J10">
-        <v>1.028179054704715</v>
+        <v>1.028162953378795</v>
       </c>
       <c r="K10">
-        <v>1.036446189498655</v>
+        <v>1.036015186548175</v>
       </c>
       <c r="L10">
-        <v>1.021665671448678</v>
+        <v>1.021693900389852</v>
       </c>
       <c r="M10">
-        <v>1.034596518373894</v>
+        <v>1.034250732764026</v>
       </c>
       <c r="N10">
-        <v>1.012879756230089</v>
+        <v>1.014604440783351</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036877488549461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036585133317561</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021819231049901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9969278412570164</v>
+        <v>0.9971883069315487</v>
       </c>
       <c r="D11">
-        <v>1.020364582054487</v>
+        <v>1.020204127831817</v>
       </c>
       <c r="E11">
-        <v>1.005044789383552</v>
+        <v>1.005320439373108</v>
       </c>
       <c r="F11">
-        <v>1.017945016864602</v>
+        <v>1.017876369257847</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043741539060465</v>
+        <v>1.043803694044052</v>
       </c>
       <c r="J11">
-        <v>1.026428986476956</v>
+        <v>1.026678525236836</v>
       </c>
       <c r="K11">
-        <v>1.034912406358381</v>
+        <v>1.034754823825102</v>
       </c>
       <c r="L11">
-        <v>1.019872191355447</v>
+        <v>1.020142712683413</v>
       </c>
       <c r="M11">
-        <v>1.032536269633267</v>
+        <v>1.032468858088228</v>
       </c>
       <c r="N11">
-        <v>1.012278950513897</v>
+        <v>1.014434561845615</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035825830172963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03573001480708</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021544921071871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9957775185685739</v>
+        <v>0.9961505378735999</v>
       </c>
       <c r="D12">
-        <v>1.019562788024253</v>
+        <v>1.019513469529292</v>
       </c>
       <c r="E12">
-        <v>1.004141293778981</v>
+        <v>1.004517483904856</v>
       </c>
       <c r="F12">
-        <v>1.016941964701759</v>
+        <v>1.016987021762285</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043411992745112</v>
+        <v>1.043537421885324</v>
       </c>
       <c r="J12">
-        <v>1.025761662723413</v>
+        <v>1.026118712105223</v>
       </c>
       <c r="K12">
-        <v>1.034324553829527</v>
+        <v>1.03427613366037</v>
       </c>
       <c r="L12">
-        <v>1.019189580904023</v>
+        <v>1.019558644817759</v>
       </c>
       <c r="M12">
-        <v>1.031751625456032</v>
+        <v>1.031795856392991</v>
       </c>
       <c r="N12">
-        <v>1.012048484906972</v>
+        <v>1.014385836776754</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035410200152048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035391572985865</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021439783046036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9960226564232375</v>
+        <v>0.9963713988727494</v>
       </c>
       <c r="D13">
-        <v>1.019732651579801</v>
+        <v>1.019659406943688</v>
       </c>
       <c r="E13">
-        <v>1.004333474753545</v>
+        <v>1.004687979861758</v>
       </c>
       <c r="F13">
-        <v>1.017155108465365</v>
+        <v>1.017175671694421</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04348149202625</v>
+        <v>1.043593295107576</v>
       </c>
       <c r="J13">
-        <v>1.025903063026544</v>
+        <v>1.026236939504583</v>
       </c>
       <c r="K13">
-        <v>1.034448525423592</v>
+        <v>1.034376609928681</v>
       </c>
       <c r="L13">
-        <v>1.019334363892572</v>
+        <v>1.019682179270464</v>
       </c>
       <c r="M13">
-        <v>1.031917905871162</v>
+        <v>1.031938093526467</v>
       </c>
       <c r="N13">
-        <v>1.012097046554352</v>
+        <v>1.014394882075239</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035495360890029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03545987841984</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021461579770059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9968320818793297</v>
+        <v>0.997101781744644</v>
       </c>
       <c r="D14">
-        <v>1.02029740703256</v>
+        <v>1.020146092124094</v>
       </c>
       <c r="E14">
-        <v>1.00496942369826</v>
+        <v>1.005253322092375</v>
       </c>
       <c r="F14">
-        <v>1.01786125468145</v>
+        <v>1.017801950771264</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043713796472844</v>
+        <v>1.043781152164694</v>
       </c>
       <c r="J14">
-        <v>1.026373089740372</v>
+        <v>1.026631456169461</v>
       </c>
       <c r="K14">
-        <v>1.034862914229892</v>
+        <v>1.034714311408512</v>
       </c>
       <c r="L14">
-        <v>1.019815075254721</v>
+        <v>1.020093683617851</v>
       </c>
       <c r="M14">
-        <v>1.03247055357226</v>
+        <v>1.032412319092588</v>
       </c>
       <c r="N14">
-        <v>1.012259530470153</v>
+        <v>1.014429907019649</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035789770690035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035700201165448</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021535906624406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9973334694786165</v>
+        <v>0.9975551115800084</v>
       </c>
       <c r="D15">
-        <v>1.020649276187046</v>
+        <v>1.020450339329488</v>
       </c>
       <c r="E15">
-        <v>1.005364118083575</v>
+        <v>1.005605098187068</v>
       </c>
       <c r="F15">
-        <v>1.018299946344611</v>
+        <v>1.018191973296595</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043859084618433</v>
+        <v>1.043899363305561</v>
       </c>
       <c r="J15">
-        <v>1.026665838369547</v>
+        <v>1.026878248767876</v>
       </c>
       <c r="K15">
-        <v>1.035122182955953</v>
+        <v>1.034926784448085</v>
       </c>
       <c r="L15">
-        <v>1.020114209680134</v>
+        <v>1.020350734567187</v>
       </c>
       <c r="M15">
-        <v>1.032814753585799</v>
+        <v>1.032708712281007</v>
       </c>
       <c r="N15">
-        <v>1.012361265666764</v>
+        <v>1.014455060772903</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035978948168359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035856859545138</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021583223742001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000200334939738</v>
+        <v>1.000162867247433</v>
       </c>
       <c r="D16">
-        <v>1.02265164370986</v>
+        <v>1.022192449569369</v>
       </c>
       <c r="E16">
-        <v>1.007620016378936</v>
+        <v>1.007630184621203</v>
       </c>
       <c r="F16">
-        <v>1.020804669446653</v>
+        <v>1.020431747932443</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044677544731124</v>
+        <v>1.044571328862395</v>
       </c>
       <c r="J16">
-        <v>1.028329246894222</v>
+        <v>1.028293260230978</v>
       </c>
       <c r="K16">
-        <v>1.036588101857533</v>
+        <v>1.036136712723755</v>
       </c>
       <c r="L16">
-        <v>1.021816761068064</v>
+        <v>1.02182674983422</v>
       </c>
       <c r="M16">
-        <v>1.034772576081732</v>
+        <v>1.034406022158386</v>
       </c>
       <c r="N16">
-        <v>1.012935926694221</v>
+        <v>1.014630436559133</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037018561371141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036715771828544</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021850184402085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001978007249871</v>
+        <v>1.001794921919562</v>
       </c>
       <c r="D17">
-        <v>1.023895224279295</v>
+        <v>1.023286231816259</v>
       </c>
       <c r="E17">
-        <v>1.009021206482686</v>
+        <v>1.008902050060653</v>
       </c>
       <c r="F17">
-        <v>1.022360451675808</v>
+        <v>1.021836024960367</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045182839581063</v>
+        <v>1.044993509297529</v>
       </c>
       <c r="J17">
-        <v>1.029360385195431</v>
+        <v>1.029184298242283</v>
       </c>
       <c r="K17">
-        <v>1.037496865584628</v>
+        <v>1.036897926977838</v>
       </c>
       <c r="L17">
-        <v>1.022872888777217</v>
+        <v>1.022755773912439</v>
       </c>
       <c r="M17">
-        <v>1.035987460075309</v>
+        <v>1.035471723699852</v>
       </c>
       <c r="N17">
-        <v>1.013292124551986</v>
+        <v>1.014777922355478</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037663667510005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037256798686537</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022018777173362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00299651279741</v>
+        <v>1.002736016118979</v>
       </c>
       <c r="D18">
-        <v>1.024603421109233</v>
+        <v>1.023913117586182</v>
       </c>
       <c r="E18">
-        <v>1.009823361110597</v>
+        <v>1.009635646335263</v>
       </c>
       <c r="F18">
-        <v>1.023249935450171</v>
+        <v>1.0226437194441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045467432658438</v>
+        <v>1.045233581312263</v>
       </c>
       <c r="J18">
-        <v>1.02994679151253</v>
+        <v>1.029696057058396</v>
       </c>
       <c r="K18">
-        <v>1.038010564342236</v>
+        <v>1.037331462477248</v>
       </c>
       <c r="L18">
-        <v>1.023474657860898</v>
+        <v>1.023290103253605</v>
       </c>
       <c r="M18">
-        <v>1.036679060182317</v>
+        <v>1.036082713764076</v>
       </c>
       <c r="N18">
-        <v>1.013493305087867</v>
+        <v>1.014875090760695</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038015253239279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037550568093682</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022113706472337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003351190837473</v>
+        <v>1.003064581698432</v>
       </c>
       <c r="D19">
-        <v>1.024854041158165</v>
+        <v>1.024136125613668</v>
       </c>
       <c r="E19">
-        <v>1.010103986808434</v>
+        <v>1.00989313403283</v>
       </c>
       <c r="F19">
-        <v>1.023562043804934</v>
+        <v>1.022928100167794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045569607683265</v>
+        <v>1.045320643335677</v>
       </c>
       <c r="J19">
-        <v>1.030154298661629</v>
+        <v>1.029878357329068</v>
       </c>
       <c r="K19">
-        <v>1.038194802682584</v>
+        <v>1.037488467875982</v>
       </c>
       <c r="L19">
-        <v>1.023686941651037</v>
+        <v>1.023479617141365</v>
       </c>
       <c r="M19">
-        <v>1.036923661619983</v>
+        <v>1.036299976265545</v>
       </c>
       <c r="N19">
-        <v>1.013565574719339</v>
+        <v>1.014913644532541</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038151893682995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037668575118432</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022149167889336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0017871658749</v>
+        <v>1.001619127491149</v>
       </c>
       <c r="D20">
-        <v>1.023761260921453</v>
+        <v>1.023167896409564</v>
       </c>
       <c r="E20">
-        <v>1.008870579863702</v>
+        <v>1.008764775365331</v>
       </c>
       <c r="F20">
-        <v>1.022193113343156</v>
+        <v>1.021684452724456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045128357951509</v>
+        <v>1.044947656379489</v>
       </c>
       <c r="J20">
-        <v>1.029249368682808</v>
+        <v>1.02908777685329</v>
       </c>
       <c r="K20">
-        <v>1.037398780154702</v>
+        <v>1.036815242451865</v>
       </c>
       <c r="L20">
-        <v>1.022759223780408</v>
+        <v>1.022655237919442</v>
       </c>
       <c r="M20">
-        <v>1.03585663482224</v>
+        <v>1.035356430642502</v>
       </c>
       <c r="N20">
-        <v>1.013253668420506</v>
+        <v>1.014760307333331</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037592985422976</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037196876619207</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02200033750538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9966061605989132</v>
+        <v>0.9969220690398708</v>
       </c>
       <c r="D21">
-        <v>1.020145060644804</v>
+        <v>1.020034251557454</v>
       </c>
       <c r="E21">
-        <v>1.004793527043303</v>
+        <v>1.005119386094036</v>
       </c>
       <c r="F21">
-        <v>1.017667140512767</v>
+        <v>1.017650580487674</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04365337688403</v>
+        <v>1.043745652248244</v>
       </c>
       <c r="J21">
-        <v>1.026246465358796</v>
+        <v>1.026549043338492</v>
       </c>
       <c r="K21">
-        <v>1.034754572002563</v>
+        <v>1.034645756151842</v>
       </c>
       <c r="L21">
-        <v>1.019684650130926</v>
+        <v>1.020004414913359</v>
       </c>
       <c r="M21">
-        <v>1.032321359586245</v>
+        <v>1.032305099296772</v>
       </c>
       <c r="N21">
-        <v>1.012217280104564</v>
+        <v>1.014491967619864</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03572667041801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035666542056102</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021524524003568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9932641101028169</v>
+        <v>0.9938941143546518</v>
       </c>
       <c r="D22">
-        <v>1.017812455626238</v>
+        <v>1.018014825361728</v>
       </c>
       <c r="E22">
-        <v>1.002169598911978</v>
+        <v>1.002775837216327</v>
       </c>
       <c r="F22">
-        <v>1.01475288613439</v>
+        <v>1.015056134140975</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042689204950881</v>
+        <v>1.042958912567228</v>
       </c>
       <c r="J22">
-        <v>1.024302821740436</v>
+        <v>1.024904659995617</v>
       </c>
       <c r="K22">
-        <v>1.033039114734177</v>
+        <v>1.033237657767643</v>
       </c>
       <c r="L22">
-        <v>1.017698197802334</v>
+        <v>1.018292504067633</v>
       </c>
       <c r="M22">
-        <v>1.030037643339163</v>
+        <v>1.030335112522242</v>
       </c>
       <c r="N22">
-        <v>1.011544463275853</v>
+        <v>1.014305203000881</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034500284347559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.0346561801341</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021212094572123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.995028059859709</v>
+        <v>0.99547626883421</v>
       </c>
       <c r="D23">
-        <v>1.019036596996487</v>
+        <v>1.019061112695693</v>
       </c>
       <c r="E23">
-        <v>1.00355175845065</v>
+        <v>1.00399523910444</v>
       </c>
       <c r="F23">
-        <v>1.016286547656705</v>
+        <v>1.016407274917176</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043193520480044</v>
+        <v>1.043361235824339</v>
       </c>
       <c r="J23">
-        <v>1.025323291865398</v>
+        <v>1.025752062076334</v>
       </c>
       <c r="K23">
-        <v>1.033935834021153</v>
+        <v>1.033959898147986</v>
       </c>
       <c r="L23">
-        <v>1.018741992636512</v>
+        <v>1.019176975800466</v>
       </c>
       <c r="M23">
-        <v>1.031236620178947</v>
+        <v>1.031355108230807</v>
       </c>
       <c r="N23">
-        <v>1.011895891886045</v>
+        <v>1.014355801928835</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035124673372597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035156261708474</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021369296292615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001849934947567</v>
+        <v>1.001677361634005</v>
       </c>
       <c r="D24">
-        <v>1.023794886550808</v>
+        <v>1.02319653534966</v>
       </c>
       <c r="E24">
-        <v>1.00891701943326</v>
+        <v>1.008807294589224</v>
       </c>
       <c r="F24">
-        <v>1.022242237453846</v>
+        <v>1.02172862069719</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045137664541696</v>
+        <v>1.044954435254043</v>
       </c>
       <c r="J24">
-        <v>1.02927695864081</v>
+        <v>1.029110995436611</v>
       </c>
       <c r="K24">
-        <v>1.037416637141317</v>
+        <v>1.036828181869486</v>
       </c>
       <c r="L24">
-        <v>1.022789331111911</v>
+        <v>1.022681489650455</v>
       </c>
       <c r="M24">
-        <v>1.035889697649616</v>
+        <v>1.035384607785048</v>
       </c>
       <c r="N24">
-        <v>1.013260338307053</v>
+        <v>1.01476052733981</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037578269142469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037176011649882</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022000476903914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009482605478176</v>
+        <v>1.008834950509102</v>
       </c>
       <c r="D25">
-        <v>1.029144003384797</v>
+        <v>1.028016293608209</v>
       </c>
       <c r="E25">
-        <v>1.014951743931801</v>
+        <v>1.01442350713509</v>
       </c>
       <c r="F25">
-        <v>1.028941357123629</v>
+        <v>1.027902986764313</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047280832556592</v>
+        <v>1.046816405213137</v>
       </c>
       <c r="J25">
-        <v>1.033695002739479</v>
+        <v>1.0330685981591</v>
       </c>
       <c r="K25">
-        <v>1.041306135876158</v>
+        <v>1.040194720867023</v>
       </c>
       <c r="L25">
-        <v>1.027322304013935</v>
+        <v>1.026801968124548</v>
       </c>
       <c r="M25">
-        <v>1.041106414402982</v>
+        <v>1.040083053748182</v>
       </c>
       <c r="N25">
-        <v>1.014784412181862</v>
+        <v>1.015792708921143</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040325470894598</v>
+        <v>1.039553138639462</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022749743736672</v>
       </c>
     </row>
   </sheetData>
